--- a/docs/nutrients.xlsx
+++ b/docs/nutrients.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$150</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="168">
   <si>
     <t>Protein</t>
   </si>
@@ -495,9 +495,6 @@
     <t>unit</t>
   </si>
   <si>
-    <t>norm</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -511,6 +508,21 @@
   </si>
   <si>
     <t>Vitamin E</t>
+  </si>
+  <si>
+    <t>Methionine + Cysteine</t>
+  </si>
+  <si>
+    <t>Phenylalanine + Tyrosine</t>
+  </si>
+  <si>
+    <t>norm min</t>
+  </si>
+  <si>
+    <t>norm max</t>
+  </si>
+  <si>
+    <t>synonyms</t>
   </si>
 </sst>
 </file>
@@ -859,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,9 +884,11 @@
     <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
@@ -882,7 +896,7 @@
         <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>156</v>
@@ -891,13 +905,19 @@
         <v>157</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1222</v>
       </c>
@@ -911,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1018</v>
       </c>
@@ -925,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1220</v>
       </c>
@@ -939,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1007</v>
       </c>
@@ -953,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1223</v>
       </c>
@@ -967,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1198</v>
       </c>
@@ -981,7 +1001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1288</v>
       </c>
@@ -995,7 +1015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1057</v>
       </c>
@@ -1009,7 +1029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1087</v>
       </c>
@@ -1023,7 +1043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1286</v>
       </c>
@@ -1037,7 +1057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1005</v>
       </c>
@@ -1051,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1108</v>
       </c>
@@ -1065,7 +1085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1107</v>
       </c>
@@ -1079,7 +1099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1253</v>
       </c>
@@ -1093,7 +1113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1180</v>
       </c>
@@ -1151,30 +1171,30 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1062</v>
+        <v>1008</v>
       </c>
       <c r="B20">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1008</v>
+        <v>1062</v>
       </c>
       <c r="B21">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2675,7 +2695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1130</v>
       </c>
@@ -2689,7 +2709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1004</v>
       </c>
@@ -2703,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1210</v>
       </c>
@@ -2717,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1218</v>
       </c>
@@ -2731,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1219</v>
       </c>
@@ -2745,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1104</v>
       </c>
@@ -2759,7 +2779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1106</v>
       </c>
@@ -2775,11 +2795,11 @@
       <c r="F135">
         <v>900</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>3000</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1178</v>
       </c>
@@ -2793,7 +2813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1246</v>
       </c>
@@ -2807,7 +2827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1175</v>
       </c>
@@ -2823,11 +2843,11 @@
       <c r="F138">
         <v>1.3</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1162</v>
       </c>
@@ -2843,11 +2863,11 @@
       <c r="F139">
         <v>90</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>2000</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1114</v>
       </c>
@@ -2855,7 +2875,7 @@
         <v>8700</v>
       </c>
       <c r="C140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D140" t="s">
         <v>119</v>
@@ -2866,11 +2886,11 @@
       <c r="F140">
         <v>15</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1110</v>
       </c>
@@ -2878,7 +2898,7 @@
         <v>8650</v>
       </c>
       <c r="C141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D141" t="s">
         <v>117</v>
@@ -2887,7 +2907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1111</v>
       </c>
@@ -2895,7 +2915,7 @@
         <v>8710</v>
       </c>
       <c r="C142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D142" t="s">
         <v>152</v>
@@ -2904,7 +2924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1112</v>
       </c>
@@ -2912,7 +2932,7 @@
         <v>8720</v>
       </c>
       <c r="C143" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D143" t="s">
         <v>143</v>
@@ -2921,7 +2941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1109</v>
       </c>
@@ -2929,7 +2949,7 @@
         <v>7905</v>
       </c>
       <c r="C144" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D144" t="s">
         <v>103</v>
@@ -2940,7 +2960,7 @@
       <c r="F144">
         <v>15</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>1000</v>
       </c>
     </row>
@@ -2952,7 +2972,7 @@
         <v>7920</v>
       </c>
       <c r="C145" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D145" t="s">
         <v>85</v>
@@ -2969,7 +2989,7 @@
         <v>8900</v>
       </c>
       <c r="C146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D146" t="s">
         <v>34</v>
@@ -2986,7 +3006,7 @@
         <v>8950</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D147" t="s">
         <v>122</v>
@@ -3003,7 +3023,7 @@
         <v>8800</v>
       </c>
       <c r="C148" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D148" t="s">
         <v>35</v>
@@ -3041,7 +3061,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G150"/>
+  <autoFilter ref="A1:I150">
+    <sortState ref="A2:I150">
+      <sortCondition ref="D1:D150"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3049,13 +3073,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>14</v>
+      </c>
+      <c r="D1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5">
+        <v>14.5</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
